--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\Python\project\lohotron_bot_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yevhenii\Desktop\lohotron_bot_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE106E63-6922-4F02-A200-EE3178E4DD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,49 +24,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Имя: Рибак Евгеній
-Возраст: 19 годіків. 
-О себе: риба це часть мене, без риби я не я.
-Там де риба, там і я. Єбана, таку риби ловивив, це пздц було. А ще по 3 кг карасів лодошечних ловлю на вудку. Такшо наебати могу, як ти розумів</t>
-  </si>
-  <si>
-    <t>https://docs.aiogram.dev/en/latest/examples/finite_state_machine_example.html</t>
-  </si>
-  <si>
-    <t>Имя: Шаловливий язичок-женьок
-        Возраст: 19 мені вже. 
-        О себе: а чо о собі, сама бачиш цей язик :P.
-        П.С. І це я ще тут тверезий</t>
-  </si>
-  <si>
-    <t>https://surik00.gitbooks.io/aiogram-lessons/content/chapter5.html</t>
-  </si>
-  <si>
-    <t>1.jpg, 2.jpg</t>
-  </si>
-  <si>
-    <t>3.jpg</t>
-  </si>
-  <si>
-    <t>2.jpg</t>
-  </si>
-  <si>
-    <t>Швидкий текст, тест</t>
-  </si>
-  <si>
-    <t>https://mastergroosha.github.io/telegram-tutorial-2/quickstart/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+  <si>
+    <t>b1.jpg,b2.jpg, b3.jpg, b4.jpg</t>
+  </si>
+  <si>
+    <t>Кира, 21 год
+Встретимся с парнем или группой парней на выходных! 
+Ушла от родителей, выносят мозг 🤦‍♀️
+Есть подруга у которой сейчас и обитаю, у неё можно и организовать встречу 😏 Любим меф и порно! 💦
+Скучно уже вдвоём развлекаться, нужны не стеснительные выносливые ребята!
+Пишите, не стесняйтесь, мы общительные, можем повиртить 🔥</t>
+  </si>
+  <si>
+    <t>a2.jpg, a3.jpg, a4.jpg</t>
+  </si>
+  <si>
+    <t>solo2.jpg</t>
+  </si>
+  <si>
+    <t>f1.jpg,f2.jpg, f3.jpg, f4.jpg</t>
+  </si>
+  <si>
+    <t>solo6.jpg</t>
+  </si>
+  <si>
+    <t>m1.jpg,m2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Привет похотливые самцы 😉
+Будем знакомы, меня зовут Лиза, мне 24 года.
+Ищу парня с которым можно сделать обмен интим фото, возможно вирт по вебке, с особо понравившимися встречусь 💋
+Очень сильно хочу новых эмоций и ощущений ❤️
+Пожелания и мои эротические фантазии расскажу в переписке 😜💦</t>
+  </si>
+  <si>
+    <t>n1.jpg,n2.jpg</t>
+  </si>
+  <si>
+    <t>Здравствуйте , я ищу  надежного, достойного, доброго, сильного и уравновешенного по характеру, целеустремленного, заботливого, уверенного в себе мужчину.Хочу осуществить свои сексуальные фантазии.Люблю анальный секс.А ещё мне нравится когда облизывают мое тело😄</t>
+  </si>
+  <si>
+    <t>j1.jpg,j2.jpg, j3.jpg, j4.jpg</t>
+  </si>
+  <si>
+    <t>Я в разводе! Долгое время была в отношениях sexwife, муж куколд 😂
+Для серьёзных отношений ищу активного парня. 
+Я не спешу. 😏
+Люблю доминировать над своим мужчиной. Не терплю грубого отношения к себе, я домина, но в качестве игры могу побыть покорной шлюшкой, но только для альфа самцов с большими членами 🍆💦
+В деньгах не нуждаюсь, обеспечена, все игрушки и место для встреч имеется!</t>
+  </si>
+  <si>
+    <t>e1.jpg,e2.jpg,e3.jpg,e4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активная, красивая, спортивная фигура и длинные ноги. В кровати "НЕ БРЕВНО".
+С недавнего времени живу без родителей в собственной квартире с котиком, без подруг и теперь могу себе позволить все 
+Ещё немного скромная, но хочу в себе это побороть. Обожаю куни и сосать большие члены 
+Всегда в поиске новых ощущений и нового опыта! Поэтому если ты любишь эксперименты - смело пиши мне </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя:Люда
+Возраст:25
+Грудь:2
+Есть у меня одна особенность, я сильно возбуждаюсь от одной только мысли, заняться сексом в общественном месте (например в парке)
+Нравятся развратные игры 
+Хотим с подругой устроить секс вечеринку где парни будут в роли нашей прислуги! 😍
+Требуются незакомплексованые молодые люди от 23 лет и с членом от 15 см!
+Пишите я не кусаюсь </t>
+  </si>
+  <si>
+    <t>Мне 22 года. Ещё учусь в универе. Не курю, выпиваю редко.
+Я открытый, добрый и веселый человек, хочется больше экспериментов в сексе 
+Бывший был мудаком, часто бухал и обижал меня, поэтому ищу адекватного парня желающего воплотить все свои самые развратные фантазии со мной! Возможны длительные отношения 
+Сразу пишите о себе и желательно с фото, всем отвечу, первое время если понравишься можем даже просто повиртить 😜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кто готов заняться сексом с 37-летней женщиной? 🔥
+Я абсолютно серьезно. Мне не 20 лет и мое время подходит к концу, секса с мужем никакого нет. В реальной жизни мне трудной найти молодого партнера. Боятся, все воспринимают как шутку. А мне нужно, блин, понимаете?
+Почему пишу сюда. Я осведомлена, что к так называемым милфам вы относитесь положительно. У меня нормальные сиськи, длинные ноги, вполне норм состояние, но муж очень разленился и никогда не удовлетворял.  
+Встречаемся в условном месте, делаем дело, разбегаемся))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мария, 30 лет
+Ищу доминирующего парня, чтобы жестко и грубо смог трахать меня - использовать как вещь. 
+Можно группой парней 
+Обожаю анал 🍆
+Люблю слюнявые поцелую и пощечины 
+Вирт с перепиской и с голосовыми так же для начала сойдут! 
+</t>
+  </si>
+  <si>
+    <t>l1.jpg,l2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Всем привет!  Буду рада знакомству с мужчиной от 23</t>
+  </si>
+  <si>
+    <t>g1.jpg,g2.jpg,g3.jpg,g4.jpg</t>
+  </si>
+  <si>
+    <t>Скажи-ка, зеркальце, мой свет... Да успокой хозяйке нервы... Я ХОРОША ? - Базара нет ! Змеиный нрав с натурой стервы ! 😏
+Да мне нравятся секс игрушки да я люблю ласкать красивый член если кому-то что-то не нравится проходите просто мимо) 
+Обожаю когда меня трахают в попку, но это нужно заслужить 👅
+Для начала я буду в роли главной и оседлаю твоё личико, а дальше оцениваю твои способности и уже обсудим дальнейшее взаимодействие 💦
+Писать только по делу и кратко, на "привет, как дела" не отвечаю!</t>
+  </si>
+  <si>
+    <t>solo4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя: Юля
+Возраст: 42
+Грудь:2 
+О себе: Я обеспеченная взрослая дама, большую часть времени провожу на работе, но иногда хотеться мужской ласки.Познакомлюсь со свободным мужчиной от 25. Отношений не ищу, интересуют интимные встречи, встречаться можем у меня. Я на авто, могу забрать.   
+Фото  могу отправить, пишите я не кусаюсь) </t>
+  </si>
+  <si>
+    <t>solo3.jpg</t>
+  </si>
+  <si>
+    <t>Имя: Маша 
+Возраст: 24
+Грудь: 4 
+О себе: Обожаю секс! Я знаю, что делать руками, губами, языком… 
+Мое сексуальное изящное тело и пылкий темперамент доведут вас до изнеможения.
+В поисках экзотического разнообразия, выходящего за все рамки... 😏
+Есть очень много разных игрушек, плеток и приспособ, мне не нужен обычный секс, поэтому если не умеешь ими пользоваться, не пиши!
+Цель знакомства: регулярный секс, виртуальное общение, bdsm, хочу умелого мужчину который сможет только руками и языком доводить до сквирта 😍💦</t>
+  </si>
+  <si>
+    <t>d1.jpg,d2.jpg, d3.jpg, d4.jpg</t>
+  </si>
+  <si>
+    <t>Диана, 27 лет
+Недавно развелась и теперь думаю можно реализовать все мои пошлые фантазии 💦
+Муж был полным и неуклюжим, до секса ему вообще не было дела 😔 Натерпелась конечно, а так хотелось чтоб меня нормально оттрахали 🔥
+Обожаю ceкc, в пoпу дaю и глoтаю с большим удовольствием)
+Всем подряд не даю, для начала пишите пообщаемся, обсудим всё 😜</t>
+  </si>
+  <si>
+    <t>k1.jpg,k2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя: Юля
+Возраст: 19
+Грудь:2 
+Всем привет! Человек я творческий. Занимаюсь журналистикой, пишу песенки, стихи. Не могу и дня представить без хорошей музыки в ушах. Люблю своих друзей, ходить на концерты, читать хорошие книги, интересные места и неординарных людей с богатой фантазией 😏
+Пока родителей дома нет, я люблю играть с различными игрушками для взрослых, которых у меня очень много, и хотела бы с кем-то поделиться фотками и видео, возбуждает когда за мной наблюдают) Раньше никогда этим не занималась 🤷‍♀️
+Пиши если ты думаешь что можешь меня заинтересовать!
+При взаимной симпатии возможно многое 💋
+</t>
+  </si>
+  <si>
+    <t>Имя: Даша,
+Возраст: 20,
+О себе: Хочу попробовать анал! От мысли, что кто-то будет облизывать нежным язычком, мой молочный анус, я жутко теку. Есть парни, которые безвозмездно оближут мои промежности и потом трахнут в тугой анал?? Напишите.</t>
+  </si>
+  <si>
+    <t>h2.jpg, h3.jpg, h4.jpg</t>
+  </si>
+  <si>
+    <t>solo7.jpg</t>
+  </si>
+  <si>
+    <t>Имя: Лиза,
+Возраст: 18,
+Грудь:1
+О себе: Обожаю жесткий секс во всех проявлениях, БДСМ. Хочу чтобы меня связали, отшлёпали прёткой и залили спермой. Обещаю быть покорной шлюшкой</t>
+  </si>
+  <si>
+    <t>solo8.jpg</t>
+  </si>
+  <si>
+    <t>Имя: Карина,
+Возраст: 22,
+О себе: Мои дырочки видели не много парней. Хочу найти парня, который отлизал мою сладкую розовую писю. Просто теку от мыслей, если ты такой - пиши</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id16238</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id19237</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id10263</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id12711</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id99281</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id00282</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id17236</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id81723</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id01123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://xxx18.top/id15021</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id15021</t>
+  </si>
+  <si>
+    <t>http://xxx18.top/id18312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://xxx18.top/id81632
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,16 +283,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,54 +576,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yevhenii\Desktop\lohotron_bot_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yevhenii\Desktop\new project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>b1.jpg,b2.jpg, b3.jpg, b4.jpg</t>
   </si>
@@ -204,45 +204,11 @@
 О себе: Мои дырочки видели не много парней. Хочу найти парня, который отлизал мою сладкую розовую писю. Просто теку от мыслей, если ты такой - пиши</t>
   </si>
   <si>
-    <t>http://xxx18.top/id16238</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id19237</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id10263</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id12711</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id99281</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id00282</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id17236</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id81723</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id01123</t>
+    <t>http://xxx18.top/sex</t>
   </si>
   <si>
     <t xml:space="preserve">
-http://xxx18.top/id15021</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id15021</t>
-  </si>
-  <si>
-    <t>http://xxx18.top/id18312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://xxx18.top/id81632
-</t>
+http://xxx18.top/sex</t>
   </si>
 </sst>
 </file>
@@ -580,7 +546,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -619,7 +585,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="255" x14ac:dyDescent="0.25">
@@ -630,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -641,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -652,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -663,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -674,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -685,7 +651,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,7 +662,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -707,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -718,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="285" x14ac:dyDescent="0.25">
@@ -729,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="180" x14ac:dyDescent="0.25">
@@ -740,7 +706,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="345" x14ac:dyDescent="0.25">
@@ -751,7 +717,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -762,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -773,7 +739,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -784,7 +750,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -803,9 +769,9 @@
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
     <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C18" r:id="rId16"/>
+    <hyperlink ref="C16" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId18"/>
